--- a/sample personal stock list/tw_stock.xlsx
+++ b/sample personal stock list/tw_stock.xlsx
@@ -487,7 +487,7 @@
     <col customWidth="1" min="3" max="3" width="8.71"/>
     <col customWidth="1" min="4" max="4" width="12.57"/>
     <col customWidth="1" min="5" max="5" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="26.29"/>
+    <col customWidth="1" min="6" max="6" width="47.29"/>
     <col customWidth="1" min="7" max="24" width="8.71"/>
   </cols>
   <sheetData>
@@ -1697,7 +1697,9 @@
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="1">
+        <v>2634.0</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="1" t="s">
         <v>15</v>
@@ -1731,7 +1733,9 @@
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="1">
+        <v>4536.0</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
         <v>15</v>
@@ -1765,7 +1769,9 @@
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="1">
+        <v>2402.0</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
         <v>15</v>
